--- a/my_test_temp/sxssf.xlsx
+++ b/my_test_temp/sxssf.xlsx
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -178,34 +178,47 @@
       <main:sz val="11"/>
       <main:color theme="1"/>
       <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
-      <main:charset val="134"/>
-      <main:scheme val="minor"/>
-    </font>
-    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-      <main:sz val="11"/>
-      <main:color theme="1"/>
-      <main:name val="宋体"/>
+      <main:family val="3"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:family val="3"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:family val="3"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:family val="3"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:family val="3"/>
+      <main:charset val="134"/>
+      <main:scheme val="minor"/>
+    </font>
+    <font xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <main:sz val="11"/>
+      <main:color theme="1"/>
+      <main:name val="宋体"/>
+      <main:family val="3"/>
       <main:charset val="134"/>
       <main:scheme val="minor"/>
     </font>
@@ -337,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="center" vertical="center"/>
@@ -399,22 +412,22 @@
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true" applyFont="true">
-      <main:alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
@@ -432,10 +445,13 @@
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center"/>
-    </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,7 +522,7 @@
     <col min="3" max="3" width="19.125" customWidth="true"/>
     <col min="4" max="4" width="12.375" customWidth="true"/>
     <col min="5" max="5" width="21.625" customWidth="true"/>
-    <col min="6" max="6" width="8.0" customWidth="true"/>
+    <col min="6" max="6" width="14.75" customWidth="true"/>
     <col min="7" max="7" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -617,31 +633,36 @@
           <t/>
         </is>
       </c>
+      <c r="F4" s="21" t="inlineStr">
+        <is>
+          <t>${tab.name}</t>
+        </is>
+      </c>
     </row>
     <row r="5" customHeight="true" ht="101.1">
-      <c r="A5" s="21" t="inlineStr">
-        <is>
-          <t>${headImage}</t>
-        </is>
-      </c>
-      <c r="B5" s="22" t="inlineStr">
-        <is>
-          <t>${no}</t>
-        </is>
-      </c>
-      <c r="C5" s="23" t="inlineStr">
-        <is>
-          <t>${name}</t>
-        </is>
-      </c>
-      <c r="D5" s="24" t="inlineStr">
-        <is>
-          <t>${age}</t>
-        </is>
-      </c>
-      <c r="E5" s="25" t="inlineStr">
-        <is>
-          <t>${salary}</t>
+      <c r="A5" s="22" t="inlineStr">
+        <is>
+          <t>${list.headImage}</t>
+        </is>
+      </c>
+      <c r="B5" s="23" t="inlineStr">
+        <is>
+          <t>${list.no}</t>
+        </is>
+      </c>
+      <c r="C5" s="24" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="D5" s="25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E5" s="26" t="inlineStr">
+        <is>
+          <t>${list.salary}</t>
         </is>
       </c>
     </row>
@@ -670,44 +691,44 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="true" ht="13.5">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>资金</t>
         </is>
       </c>
-      <c r="B1" s="27" t="inlineStr">
+      <c r="B1" s="28" t="inlineStr">
         <is>
           <t>收入</t>
         </is>
       </c>
-      <c r="C1" s="28" t="inlineStr">
+      <c r="C1" s="29" t="inlineStr">
         <is>
           <t>养老金额</t>
         </is>
       </c>
-      <c r="D1" s="29" t="inlineStr">
+      <c r="D1" s="30" t="inlineStr">
         <is>
           <t>公积金</t>
         </is>
       </c>
     </row>
     <row r="2" customHeight="true" ht="13.5">
-      <c r="A2" s="30" t="inlineStr">
+      <c r="A2" s="31" t="inlineStr">
         <is>
           <t>${no}</t>
         </is>
       </c>
-      <c r="B2" s="31" t="inlineStr">
+      <c r="B2" s="32" t="inlineStr">
         <is>
           <t>${name}</t>
         </is>
       </c>
-      <c r="C2" s="32" t="inlineStr">
+      <c r="C2" s="33" t="inlineStr">
         <is>
           <t>${oldSalary}</t>
         </is>
       </c>
-      <c r="D2" s="33" t="inlineStr">
+      <c r="D2" s="34" t="inlineStr">
         <is>
           <t>${salary}</t>
         </is>

--- a/my_test_temp/sxssf.xlsx
+++ b/my_test_temp/sxssf.xlsx
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true" applyFont="true">
       <main:alignment horizontal="center" vertical="center"/>
@@ -418,14 +418,14 @@
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
-      <main:alignment vertical="center"/>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center"/>
@@ -452,6 +452,21 @@
       <main:alignment vertical="center"/>
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyNumberFormat="true" applyFont="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
+      <main:alignment vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="1" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="1" applyBorder="true" applyNumberFormat="true">
+      <main:alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -520,7 +535,7 @@
     <col min="1" max="1" width="18.375" customWidth="true"/>
     <col min="2" max="2" width="16.125" customWidth="true"/>
     <col min="3" max="3" width="19.125" customWidth="true"/>
-    <col min="4" max="4" width="12.375" customWidth="true"/>
+    <col min="4" max="4" width="28.5" customWidth="true"/>
     <col min="5" max="5" width="21.625" customWidth="true"/>
     <col min="6" max="6" width="14.75" customWidth="true"/>
     <col min="7" max="7" width="8.0" customWidth="true"/>
@@ -635,7 +650,7 @@
       </c>
       <c r="F4" s="21" t="inlineStr">
         <is>
-          <t>${tab.name}</t>
+          <t>张三</t>
         </is>
       </c>
     </row>
@@ -652,15 +667,42 @@
       </c>
       <c r="C5" s="24" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>姓名：张三</t>
         </is>
       </c>
       <c r="D5" s="25" t="inlineStr">
         <is>
-          <t/>
+          <t>1.0</t>
         </is>
       </c>
       <c r="E5" s="26" t="inlineStr">
+        <is>
+          <t>${list.salary}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" customHeight="true" ht="101.1">
+      <c r="A6" s="35" t="inlineStr">
+        <is>
+          <t>${list.headImage}</t>
+        </is>
+      </c>
+      <c r="B6" s="36" t="inlineStr">
+        <is>
+          <t>${list.no}</t>
+        </is>
+      </c>
+      <c r="C6" s="37" t="inlineStr">
+        <is>
+          <t>姓名：李四</t>
+        </is>
+      </c>
+      <c r="D6" s="38" t="inlineStr">
+        <is>
+          <t>1.3333333333333333</t>
+        </is>
+      </c>
+      <c r="E6" s="39" t="inlineStr">
         <is>
           <t>${list.salary}</t>
         </is>

--- a/my_test_temp/sxssf.xlsx
+++ b/my_test_temp/sxssf.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="F4" s="21" t="inlineStr">
         <is>
-          <t>测试小数1.56</t>
+          <t>测试小数</t>
         </is>
       </c>
       <c r="G4" s="22" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="E5" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F5" s="28" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="E6" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F6" s="28" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="E7" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F7" s="28" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="E8" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F8" s="28" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F9" s="28" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F10" s="28" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="E11" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F11" s="28" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="E12" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F12" s="28" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E13" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F13" s="28" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E14" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F14" s="28" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E15" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F15" s="28" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="E16" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F16" s="28" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="E17" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F17" s="28" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F18" s="28" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F19" s="28" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="E20" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F20" s="28" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E21" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F21" s="28" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="E22" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F22" s="28" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="E23" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F23" s="28" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="E24" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F24" s="28" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E25" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F25" s="28" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="E26" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F26" s="28" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F27" s="28" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F28" s="28" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E29" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F29" s="28" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E30" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F30" s="28" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="E31" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F31" s="28" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="E32" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F32" s="28" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E33" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F33" s="28" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E34" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F34" s="28" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="E35" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F35" s="28" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="E36" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F36" s="28" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="E37" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F37" s="28" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="E38" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F38" s="28" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="E39" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F39" s="28" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E40" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F40" s="28" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="E41" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F41" s="28" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="E42" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F42" s="28" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="E43" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F43" s="28" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="E44" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F44" s="28" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="E45" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F45" s="28" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E46" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F46" s="28" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="E47" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F47" s="28" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E48" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F48" s="28" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="E49" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F49" s="28" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="E50" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F50" s="28" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="E51" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F51" s="28" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E52" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F52" s="28" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="E53" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F53" s="28" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="E54" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F54" s="28" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="E55" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F55" s="28" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="E56" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F56" s="28" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="E57" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F57" s="28" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="E58" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F58" s="28" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="E59" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F59" s="28" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="E60" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F60" s="28" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="E61" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F61" s="28" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="E62" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F62" s="28" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="E63" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F63" s="28" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="E64" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F64" s="28" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="E65" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F65" s="28" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="E66" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F66" s="28" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="E67" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F67" s="28" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="E68" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F68" s="28" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="E69" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F69" s="28" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="E70" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F70" s="28" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="E71" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F71" s="28" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="E72" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F72" s="28" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="E73" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F73" s="28" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="E74" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F74" s="28" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="E75" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F75" s="28" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="E76" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F76" s="28" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="E77" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F77" s="28" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="E78" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F78" s="28" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="E79" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F79" s="28" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="E80" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F80" s="28" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="E81" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F81" s="28" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="E82" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F82" s="28" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="E83" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F83" s="28" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="E84" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F84" s="28" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="E85" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F85" s="28" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="E86" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F86" s="28" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="E87" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F87" s="28" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="E88" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F88" s="28" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="E89" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F89" s="28" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="E90" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F90" s="28" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="E91" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F91" s="28" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="E92" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F92" s="28" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="E93" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F93" s="28" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="E94" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F94" s="28" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="E95" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F95" s="28" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E96" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F96" s="28" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="E97" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F97" s="28" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="E98" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F98" s="28" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="E99" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F99" s="28" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="E100" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F100" s="28" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="E101" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F101" s="28" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="E102" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F102" s="28" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E103" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F103" s="28" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="E104" s="27" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>%</t>
         </is>
       </c>
       <c r="F104" s="28" t="inlineStr">
